--- a/程序/数据集_苏北.xlsx
+++ b/程序/数据集_苏北.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大论文\需水预测\PSO-BP神经网络回归预测模型（粒子群算法优化BP神经网络）\程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC20062-2745-421A-9E36-B1E0D841D09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C162176-5EEE-4556-BE6B-206646EBA7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="28605" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="0" windowWidth="28605" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1044,15 +1044,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="31.5" style="19" customWidth="1"/>
-    <col min="6" max="6" width="22" style="19" customWidth="1"/>
-    <col min="7" max="8" width="31.5" style="19" customWidth="1"/>
+    <col min="1" max="7" width="31.5" style="19" customWidth="1"/>
+    <col min="8" max="8" width="22" style="19" customWidth="1"/>
     <col min="9" max="16384" width="13.125" style="19"/>
   </cols>
   <sheetData>
@@ -1072,14 +1071,14 @@
       <c r="E1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>61</v>
@@ -1106,17 +1105,17 @@
         <f t="shared" si="0"/>
         <v>30.073714780374061</v>
       </c>
-      <c r="F2" s="14">
-        <f t="shared" ref="F2:F20" si="1">F35</f>
+      <c r="F2" s="13">
+        <f t="shared" ref="F2:G11" si="1">F35</f>
+        <v>188.30948032558243</v>
+      </c>
+      <c r="G2" s="13">
+        <f>G35</f>
+        <v>-2.1138240751920421</v>
+      </c>
+      <c r="H2" s="14">
+        <f t="shared" ref="H2:H20" si="2">H35</f>
         <v>186.19565625039039</v>
-      </c>
-      <c r="G2" s="13">
-        <f t="shared" ref="G2:H11" si="2">G35</f>
-        <v>188.30948032558243</v>
-      </c>
-      <c r="H2" s="13">
-        <f>H35</f>
-        <v>-2.1138240751920421</v>
       </c>
       <c r="I2" s="20">
         <v>2005</v>
@@ -1143,313 +1142,313 @@
         <f t="shared" si="3"/>
         <v>28.565593390207813</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
+        <f t="shared" si="1"/>
+        <v>186.19565625039039</v>
+      </c>
+      <c r="G3" s="13">
+        <f t="shared" si="1"/>
+        <v>9.5659496284114027</v>
+      </c>
+      <c r="H3" s="14">
+        <f t="shared" si="2"/>
+        <v>195.76160587880179</v>
+      </c>
+      <c r="I3" s="20">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <f t="shared" si="3"/>
+        <v>3076.87</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" si="3"/>
+        <v>4450</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="3"/>
+        <v>4459.5</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="3"/>
+        <v>475.61697988055846</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="3"/>
+        <v>27.05747200004156</v>
+      </c>
+      <c r="F4" s="13">
         <f t="shared" si="1"/>
         <v>195.76160587880179</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G4" s="13">
+        <f t="shared" si="1"/>
+        <v>4.2634756770822548</v>
+      </c>
+      <c r="H4" s="14">
         <f t="shared" si="2"/>
-        <v>186.19565625039039</v>
-      </c>
-      <c r="H3" s="13">
-        <f t="shared" si="2"/>
-        <v>9.5659496284114027</v>
-      </c>
-      <c r="I3" s="20">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <f t="shared" si="3"/>
-        <v>3076.87</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" si="3"/>
-        <v>4450</v>
-      </c>
-      <c r="C4" s="6">
-        <f t="shared" si="3"/>
-        <v>4459.5</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" si="3"/>
-        <v>475.61697988055846</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" si="3"/>
-        <v>27.05747200004156</v>
-      </c>
-      <c r="F4" s="14">
+        <v>200.02508155588404</v>
+      </c>
+      <c r="I4" s="20">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <f t="shared" si="3"/>
+        <v>3042.77</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="3"/>
+        <v>5287.57</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="3"/>
+        <v>4460</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="3"/>
+        <v>468.27452802784217</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="3"/>
+        <v>25.549350609875308</v>
+      </c>
+      <c r="F5" s="13">
         <f t="shared" si="1"/>
         <v>200.02508155588404</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G5" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
         <f t="shared" si="2"/>
-        <v>195.76160587880179</v>
-      </c>
-      <c r="H4" s="13">
-        <f t="shared" si="2"/>
-        <v>4.2634756770822548</v>
-      </c>
-      <c r="I4" s="20">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <f t="shared" si="3"/>
-        <v>3042.77</v>
-      </c>
-      <c r="B5" s="6">
-        <f t="shared" si="3"/>
-        <v>5287.57</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" si="3"/>
-        <v>4460</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="3"/>
-        <v>468.27452802784217</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="3"/>
-        <v>25.549350609875308</v>
-      </c>
-      <c r="F5" s="14">
+        <v>200.02508155588404</v>
+      </c>
+      <c r="I5" s="20">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <f t="shared" si="3"/>
+        <v>3023.97</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="3"/>
+        <v>6346.29</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="3"/>
+        <v>4556</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="3"/>
+        <v>460.93207617512587</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="3"/>
+        <v>24.041229219709059</v>
+      </c>
+      <c r="F6" s="13">
         <f t="shared" si="1"/>
         <v>200.02508155588404</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G6" s="13">
+        <f t="shared" si="1"/>
+        <v>-3.2603049295334472</v>
+      </c>
+      <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>200.02508155588404</v>
-      </c>
-      <c r="H5" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="20">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <f t="shared" si="3"/>
-        <v>3023.97</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="3"/>
-        <v>6346.29</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" si="3"/>
-        <v>4556</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="3"/>
-        <v>460.93207617512587</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="3"/>
-        <v>24.041229219709059</v>
-      </c>
-      <c r="F6" s="14">
+        <v>196.7647766263506</v>
+      </c>
+      <c r="I6" s="20">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <f t="shared" si="3"/>
+        <v>3015.02</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="3"/>
+        <v>7196.89</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="3"/>
+        <v>4601.2</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="3"/>
+        <v>453.58962432240952</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="3"/>
+        <v>22.533107829542807</v>
+      </c>
+      <c r="F7" s="13">
         <f t="shared" si="1"/>
         <v>196.7647766263506</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
+        <f t="shared" si="1"/>
+        <v>-5.4647766263505844</v>
+      </c>
+      <c r="H7" s="14">
         <f t="shared" si="2"/>
-        <v>200.02508155588404</v>
-      </c>
-      <c r="H6" s="13">
-        <f t="shared" si="2"/>
-        <v>-3.2603049295334472</v>
-      </c>
-      <c r="I6" s="20">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <f t="shared" si="3"/>
-        <v>3015.02</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="3"/>
-        <v>7196.89</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" si="3"/>
-        <v>4601.2</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="3"/>
-        <v>453.58962432240952</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="3"/>
-        <v>22.533107829542807</v>
-      </c>
-      <c r="F7" s="14">
+        <v>191.3</v>
+      </c>
+      <c r="I7" s="20">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <f t="shared" si="3"/>
+        <v>2977</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="3"/>
+        <v>8920.3700000000008</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="3"/>
+        <v>4660.6000000000004</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="3"/>
+        <v>447</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F8" s="13">
         <f t="shared" si="1"/>
         <v>191.3</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="H8" s="14">
         <f t="shared" si="2"/>
-        <v>196.7647766263506</v>
-      </c>
-      <c r="H7" s="13">
-        <f t="shared" si="2"/>
-        <v>-5.4647766263505844</v>
-      </c>
-      <c r="I7" s="20">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <f t="shared" si="3"/>
-        <v>2977</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="3"/>
-        <v>8920.3700000000008</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="3"/>
-        <v>4660.6000000000004</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="3"/>
-        <v>447</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="F8" s="14">
+        <v>192.4</v>
+      </c>
+      <c r="I8" s="20">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <f t="shared" si="3"/>
+        <v>2956.6</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="3"/>
+        <v>10744.32</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="3"/>
+        <v>4696.7</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="3"/>
+        <v>442</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="F9" s="13">
         <f t="shared" si="1"/>
         <v>192.4</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
+        <f t="shared" si="1"/>
+        <v>-2.9000000000000057</v>
+      </c>
+      <c r="H9" s="14">
         <f t="shared" si="2"/>
-        <v>191.3</v>
-      </c>
-      <c r="H8" s="13">
-        <f t="shared" si="2"/>
-        <v>1.0999999999999943</v>
-      </c>
-      <c r="I8" s="20">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <f t="shared" si="3"/>
-        <v>2956.6</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="3"/>
-        <v>10744.32</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="3"/>
-        <v>4696.7</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="3"/>
-        <v>442</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="F9" s="14">
+        <v>189.5</v>
+      </c>
+      <c r="I9" s="20">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <f t="shared" si="3"/>
+        <v>2943.7300000000005</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="3"/>
+        <v>12182.94</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="3"/>
+        <v>4706.1000000000004</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="3"/>
+        <v>397</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F10" s="13">
         <f t="shared" si="1"/>
         <v>189.5</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.9000000000000057</v>
+      </c>
+      <c r="H10" s="14">
         <f t="shared" si="2"/>
-        <v>192.4</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" si="2"/>
-        <v>-2.9000000000000057</v>
-      </c>
-      <c r="I9" s="20">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <f t="shared" si="3"/>
-        <v>2943.7300000000005</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="3"/>
-        <v>12182.94</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" si="3"/>
-        <v>4706.1000000000004</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="3"/>
-        <v>397</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="F10" s="14">
+        <v>187.6</v>
+      </c>
+      <c r="I10" s="20">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <f t="shared" si="3"/>
+        <v>2940.49</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="3"/>
+        <v>13558.880000000001</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="3"/>
+        <v>4720.59</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="3"/>
+        <v>21.4</v>
+      </c>
+      <c r="F11" s="13">
         <f t="shared" si="1"/>
         <v>187.6</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="H11" s="14">
         <f t="shared" si="2"/>
-        <v>189.5</v>
-      </c>
-      <c r="H10" s="13">
-        <f t="shared" si="2"/>
-        <v>-1.9000000000000057</v>
-      </c>
-      <c r="I10" s="20">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <f t="shared" si="3"/>
-        <v>2940.49</v>
-      </c>
-      <c r="B11" s="6">
-        <f t="shared" si="3"/>
-        <v>13558.880000000001</v>
-      </c>
-      <c r="C11" s="6">
-        <f t="shared" si="3"/>
-        <v>4720.59</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="3"/>
-        <v>417</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="3"/>
-        <v>21.4</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="1"/>
         <v>190.9</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="2"/>
-        <v>187.6</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="2"/>
-        <v>3.3000000000000114</v>
       </c>
       <c r="I11" s="20">
         <v>2014</v>
@@ -1476,18 +1475,18 @@
         <f t="shared" si="3"/>
         <v>18.899999999999999</v>
       </c>
-      <c r="F12" s="14">
-        <f t="shared" si="1"/>
-        <v>184.6</v>
+      <c r="F12" s="13">
+        <f t="shared" ref="F12:G20" si="4">F45</f>
+        <v>190.9</v>
       </c>
       <c r="G12" s="13">
-        <f t="shared" ref="G12:H20" si="4">G45</f>
-        <v>190.9</v>
-      </c>
-      <c r="H12" s="13">
         <f t="shared" si="4"/>
         <v>-6.3000000000000114</v>
       </c>
+      <c r="H12" s="14">
+        <f t="shared" si="2"/>
+        <v>184.6</v>
+      </c>
       <c r="I12" s="20">
         <v>2015</v>
       </c>
@@ -1513,17 +1512,17 @@
         <f t="shared" si="3"/>
         <v>18.100000000000001</v>
       </c>
-      <c r="F13" s="14">
-        <f t="shared" si="1"/>
-        <v>187.9</v>
+      <c r="F13" s="13">
+        <f t="shared" si="4"/>
+        <v>184.6</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" si="4"/>
-        <v>184.6</v>
-      </c>
-      <c r="H13" s="13">
-        <f t="shared" si="4"/>
         <v>3.3000000000000114</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="2"/>
+        <v>187.9</v>
       </c>
       <c r="I13" s="20">
         <v>2016</v>
@@ -1550,17 +1549,17 @@
         <f t="shared" si="3"/>
         <v>14.2</v>
       </c>
-      <c r="F14" s="14">
-        <f t="shared" si="1"/>
-        <v>191.2</v>
+      <c r="F14" s="13">
+        <f t="shared" si="4"/>
+        <v>187.9</v>
       </c>
       <c r="G14" s="13">
         <f t="shared" si="4"/>
-        <v>187.9</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="4"/>
         <v>3.2999999999999829</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="2"/>
+        <v>191.2</v>
       </c>
       <c r="I14" s="20">
         <v>2017</v>
@@ -1587,17 +1586,17 @@
         <f t="shared" si="3"/>
         <v>16.2</v>
       </c>
-      <c r="F15" s="14">
-        <f t="shared" si="1"/>
-        <v>164.87827786497911</v>
+      <c r="F15" s="13">
+        <f t="shared" si="4"/>
+        <v>191.2</v>
       </c>
       <c r="G15" s="13">
         <f t="shared" si="4"/>
-        <v>191.2</v>
-      </c>
-      <c r="H15" s="13">
-        <f t="shared" si="4"/>
         <v>-26.321722135020877</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="2"/>
+        <v>164.87827786497911</v>
       </c>
       <c r="I15" s="20">
         <v>2018</v>
@@ -1624,17 +1623,17 @@
         <f t="shared" si="3"/>
         <v>30.33985384922693</v>
       </c>
-      <c r="F16" s="14">
-        <f t="shared" si="1"/>
-        <v>176.77301672877161</v>
+      <c r="F16" s="13">
+        <f t="shared" si="4"/>
+        <v>164.87827786497911</v>
       </c>
       <c r="G16" s="13">
         <f t="shared" si="4"/>
-        <v>164.87827786497911</v>
-      </c>
-      <c r="H16" s="13">
-        <f t="shared" si="4"/>
         <v>11.894738863792497</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="2"/>
+        <v>176.77301672877161</v>
       </c>
       <c r="I16" s="20">
         <v>2019</v>
@@ -1661,17 +1660,17 @@
         <f t="shared" si="3"/>
         <v>28.743019436109719</v>
       </c>
-      <c r="F17" s="14">
-        <f t="shared" si="1"/>
-        <v>166.9</v>
+      <c r="F17" s="13">
+        <f t="shared" si="4"/>
+        <v>176.77301672877161</v>
       </c>
       <c r="G17" s="13">
         <f t="shared" si="4"/>
-        <v>176.77301672877161</v>
-      </c>
-      <c r="H17" s="13">
-        <f t="shared" si="4"/>
         <v>-9.8730167287716029</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="2"/>
+        <v>166.9</v>
       </c>
       <c r="I17" s="20">
         <v>2020</v>
@@ -1698,17 +1697,17 @@
         <f t="shared" si="3"/>
         <v>11.7</v>
       </c>
-      <c r="F18" s="14">
-        <f t="shared" si="1"/>
-        <v>164.5</v>
+      <c r="F18" s="13">
+        <f t="shared" si="4"/>
+        <v>166.9</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" si="4"/>
-        <v>166.9</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" si="4"/>
         <v>-2.4000000000000057</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="2"/>
+        <v>164.5</v>
       </c>
       <c r="I18" s="20">
         <v>2021</v>
@@ -1735,17 +1734,17 @@
         <f t="shared" si="3"/>
         <v>17.21032645248545</v>
       </c>
-      <c r="F19" s="14">
-        <f t="shared" si="1"/>
-        <v>194.3</v>
+      <c r="F19" s="13">
+        <f t="shared" si="4"/>
+        <v>164.5</v>
       </c>
       <c r="G19" s="13">
         <f t="shared" si="4"/>
-        <v>164.5</v>
-      </c>
-      <c r="H19" s="13">
-        <f t="shared" si="4"/>
         <v>29.800000000000011</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="2"/>
+        <v>194.3</v>
       </c>
       <c r="I19" s="20">
         <v>2022</v>
@@ -1772,17 +1771,17 @@
         <f t="shared" si="3"/>
         <v>15.790918085270157</v>
       </c>
-      <c r="F20" s="14">
-        <f t="shared" si="1"/>
-        <v>165</v>
+      <c r="F20" s="13">
+        <f t="shared" si="4"/>
+        <v>194.3</v>
       </c>
       <c r="G20" s="13">
         <f t="shared" si="4"/>
-        <v>194.3</v>
-      </c>
-      <c r="H20" s="13">
-        <f t="shared" si="4"/>
         <v>-29.300000000000011</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="2"/>
+        <v>165</v>
       </c>
       <c r="I20" s="20">
         <v>2023</v>
@@ -1804,10 +1803,10 @@
       <c r="E22" s="21" t="s">
         <v>57</v>
       </c>
+      <c r="F22" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="G22" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="22" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1817,8 +1816,8 @@
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
     </row>
     <row r="33" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
@@ -1836,14 +1835,14 @@
       <c r="E33" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>58</v>
@@ -1865,12 +1864,12 @@
       <c r="E34" s="16">
         <v>30.073714780374061</v>
       </c>
-      <c r="F34" s="14">
-        <f t="shared" ref="F34:F53" si="5">J34</f>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="14">
+        <f t="shared" ref="H34:H53" si="5">J34</f>
         <v>188.30948032558243</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
       <c r="I34" s="19">
         <v>2004</v>
       </c>
@@ -1894,17 +1893,17 @@
       <c r="E35" s="16">
         <v>28.565593390207813</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="13">
+        <f>H34</f>
+        <v>188.30948032558243</v>
+      </c>
+      <c r="G35" s="13">
+        <f>H35-H34</f>
+        <v>-2.1138240751920421</v>
+      </c>
+      <c r="H35" s="14">
         <f t="shared" si="5"/>
         <v>186.19565625039039</v>
-      </c>
-      <c r="G35" s="13">
-        <f t="shared" ref="G35:G53" si="6">F34</f>
-        <v>188.30948032558243</v>
-      </c>
-      <c r="H35" s="13">
-        <f t="shared" ref="H35:H53" si="7">F35-F34</f>
-        <v>-2.1138240751920421</v>
       </c>
       <c r="I35" s="19">
         <v>2005</v>
@@ -1929,17 +1928,17 @@
       <c r="E36" s="16">
         <v>27.05747200004156</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="13">
+        <f>H35</f>
+        <v>186.19565625039039</v>
+      </c>
+      <c r="G36" s="13">
+        <f>H36-H35</f>
+        <v>9.5659496284114027</v>
+      </c>
+      <c r="H36" s="14">
         <f t="shared" si="5"/>
         <v>195.76160587880179</v>
-      </c>
-      <c r="G36" s="13">
-        <f t="shared" si="6"/>
-        <v>186.19565625039039</v>
-      </c>
-      <c r="H36" s="13">
-        <f t="shared" si="7"/>
-        <v>9.5659496284114027</v>
       </c>
       <c r="I36" s="19">
         <v>2006</v>
@@ -1964,17 +1963,17 @@
       <c r="E37" s="16">
         <v>25.549350609875308</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="13">
+        <f>H36</f>
+        <v>195.76160587880179</v>
+      </c>
+      <c r="G37" s="13">
+        <f>H37-H36</f>
+        <v>4.2634756770822548</v>
+      </c>
+      <c r="H37" s="14">
         <f t="shared" si="5"/>
         <v>200.02508155588404</v>
-      </c>
-      <c r="G37" s="13">
-        <f t="shared" si="6"/>
-        <v>195.76160587880179</v>
-      </c>
-      <c r="H37" s="13">
-        <f t="shared" si="7"/>
-        <v>4.2634756770822548</v>
       </c>
       <c r="I37" s="19">
         <v>2007</v>
@@ -1999,17 +1998,17 @@
       <c r="E38" s="16">
         <v>24.041229219709059</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="13">
+        <f>H37</f>
+        <v>200.02508155588404</v>
+      </c>
+      <c r="G38" s="13">
+        <f>H38-H37</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
         <f t="shared" si="5"/>
         <v>200.02508155588404</v>
-      </c>
-      <c r="G38" s="13">
-        <f t="shared" si="6"/>
-        <v>200.02508155588404</v>
-      </c>
-      <c r="H38" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
       <c r="I38" s="19">
         <v>2008</v>
@@ -2034,17 +2033,17 @@
       <c r="E39" s="16">
         <v>22.533107829542807</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
+        <f>H38</f>
+        <v>200.02508155588404</v>
+      </c>
+      <c r="G39" s="13">
+        <f>H39-H38</f>
+        <v>-3.2603049295334472</v>
+      </c>
+      <c r="H39" s="14">
         <f t="shared" si="5"/>
         <v>196.7647766263506</v>
-      </c>
-      <c r="G39" s="13">
-        <f t="shared" si="6"/>
-        <v>200.02508155588404</v>
-      </c>
-      <c r="H39" s="13">
-        <f t="shared" si="7"/>
-        <v>-3.2603049295334472</v>
       </c>
       <c r="I39" s="19">
         <v>2009</v>
@@ -2069,17 +2068,17 @@
       <c r="E40" s="17">
         <v>30</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="13">
+        <f>H39</f>
+        <v>196.7647766263506</v>
+      </c>
+      <c r="G40" s="13">
+        <f>H40-H39</f>
+        <v>-5.4647766263505844</v>
+      </c>
+      <c r="H40" s="14">
         <f t="shared" si="5"/>
         <v>191.3</v>
-      </c>
-      <c r="G40" s="13">
-        <f t="shared" si="6"/>
-        <v>196.7647766263506</v>
-      </c>
-      <c r="H40" s="13">
-        <f t="shared" si="7"/>
-        <v>-5.4647766263505844</v>
       </c>
       <c r="I40" s="19">
         <v>2010</v>
@@ -2104,17 +2103,17 @@
       <c r="E41" s="17">
         <v>27</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="13">
+        <f>H40</f>
+        <v>191.3</v>
+      </c>
+      <c r="G41" s="13">
+        <f>H41-H40</f>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="H41" s="14">
         <f t="shared" si="5"/>
         <v>192.4</v>
-      </c>
-      <c r="G41" s="13">
-        <f t="shared" si="6"/>
-        <v>191.3</v>
-      </c>
-      <c r="H41" s="13">
-        <f t="shared" si="7"/>
-        <v>1.0999999999999943</v>
       </c>
       <c r="I41" s="19">
         <v>2011</v>
@@ -2139,17 +2138,17 @@
       <c r="E42" s="17">
         <v>20</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="13">
+        <f>H41</f>
+        <v>192.4</v>
+      </c>
+      <c r="G42" s="13">
+        <f>H42-H41</f>
+        <v>-2.9000000000000057</v>
+      </c>
+      <c r="H42" s="14">
         <f t="shared" si="5"/>
         <v>189.5</v>
-      </c>
-      <c r="G42" s="13">
-        <f t="shared" si="6"/>
-        <v>192.4</v>
-      </c>
-      <c r="H42" s="13">
-        <f t="shared" si="7"/>
-        <v>-2.9000000000000057</v>
       </c>
       <c r="I42" s="19">
         <v>2012</v>
@@ -2174,17 +2173,17 @@
       <c r="E43" s="17">
         <v>21.4</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="13">
+        <f>H42</f>
+        <v>189.5</v>
+      </c>
+      <c r="G43" s="13">
+        <f>H43-H42</f>
+        <v>-1.9000000000000057</v>
+      </c>
+      <c r="H43" s="14">
         <f t="shared" si="5"/>
         <v>187.6</v>
-      </c>
-      <c r="G43" s="13">
-        <f t="shared" si="6"/>
-        <v>189.5</v>
-      </c>
-      <c r="H43" s="13">
-        <f t="shared" si="7"/>
-        <v>-1.9000000000000057</v>
       </c>
       <c r="I43" s="19">
         <v>2013</v>
@@ -2209,17 +2208,17 @@
       <c r="E44" s="17">
         <v>18.899999999999999</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="13">
+        <f>H43</f>
+        <v>187.6</v>
+      </c>
+      <c r="G44" s="13">
+        <f>H44-H43</f>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="H44" s="14">
         <f t="shared" si="5"/>
         <v>190.9</v>
-      </c>
-      <c r="G44" s="13">
-        <f t="shared" si="6"/>
-        <v>187.6</v>
-      </c>
-      <c r="H44" s="13">
-        <f t="shared" si="7"/>
-        <v>3.3000000000000114</v>
       </c>
       <c r="I44" s="19">
         <v>2014</v>
@@ -2244,17 +2243,17 @@
       <c r="E45" s="17">
         <v>18.100000000000001</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="13">
+        <f>H44</f>
+        <v>190.9</v>
+      </c>
+      <c r="G45" s="13">
+        <f>H45-H44</f>
+        <v>-6.3000000000000114</v>
+      </c>
+      <c r="H45" s="14">
         <f t="shared" si="5"/>
         <v>184.6</v>
-      </c>
-      <c r="G45" s="13">
-        <f t="shared" si="6"/>
-        <v>190.9</v>
-      </c>
-      <c r="H45" s="13">
-        <f t="shared" si="7"/>
-        <v>-6.3000000000000114</v>
       </c>
       <c r="I45" s="19">
         <v>2015</v>
@@ -2279,17 +2278,17 @@
       <c r="E46" s="17">
         <v>14.2</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="13">
+        <f>H45</f>
+        <v>184.6</v>
+      </c>
+      <c r="G46" s="13">
+        <f>H46-H45</f>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="H46" s="14">
         <f t="shared" si="5"/>
         <v>187.9</v>
-      </c>
-      <c r="G46" s="13">
-        <f t="shared" si="6"/>
-        <v>184.6</v>
-      </c>
-      <c r="H46" s="13">
-        <f t="shared" si="7"/>
-        <v>3.3000000000000114</v>
       </c>
       <c r="I46" s="19">
         <v>2016</v>
@@ -2314,17 +2313,17 @@
       <c r="E47" s="17">
         <v>16.2</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="13">
+        <f>H46</f>
+        <v>187.9</v>
+      </c>
+      <c r="G47" s="13">
+        <f>H47-H46</f>
+        <v>3.2999999999999829</v>
+      </c>
+      <c r="H47" s="14">
         <f t="shared" si="5"/>
         <v>191.2</v>
-      </c>
-      <c r="G47" s="13">
-        <f t="shared" si="6"/>
-        <v>187.9</v>
-      </c>
-      <c r="H47" s="13">
-        <f t="shared" si="7"/>
-        <v>3.2999999999999829</v>
       </c>
       <c r="I47" s="19">
         <v>2017</v>
@@ -2349,17 +2348,17 @@
       <c r="E48" s="17">
         <v>30.33985384922693</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="13">
+        <f>H47</f>
+        <v>191.2</v>
+      </c>
+      <c r="G48" s="13">
+        <f>H48-H47</f>
+        <v>-26.321722135020877</v>
+      </c>
+      <c r="H48" s="14">
         <f t="shared" si="5"/>
         <v>164.87827786497911</v>
-      </c>
-      <c r="G48" s="13">
-        <f t="shared" si="6"/>
-        <v>191.2</v>
-      </c>
-      <c r="H48" s="13">
-        <f t="shared" si="7"/>
-        <v>-26.321722135020877</v>
       </c>
       <c r="I48" s="19">
         <v>2018</v>
@@ -2384,17 +2383,17 @@
       <c r="E49" s="17">
         <v>28.743019436109719</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="13">
+        <f>H48</f>
+        <v>164.87827786497911</v>
+      </c>
+      <c r="G49" s="13">
+        <f>H49-H48</f>
+        <v>11.894738863792497</v>
+      </c>
+      <c r="H49" s="14">
         <f t="shared" si="5"/>
         <v>176.77301672877161</v>
-      </c>
-      <c r="G49" s="13">
-        <f t="shared" si="6"/>
-        <v>164.87827786497911</v>
-      </c>
-      <c r="H49" s="13">
-        <f t="shared" si="7"/>
-        <v>11.894738863792497</v>
       </c>
       <c r="I49" s="19">
         <v>2019</v>
@@ -2419,17 +2418,17 @@
       <c r="E50" s="17">
         <v>11.7</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="13">
+        <f>H49</f>
+        <v>176.77301672877161</v>
+      </c>
+      <c r="G50" s="13">
+        <f>H50-H49</f>
+        <v>-9.8730167287716029</v>
+      </c>
+      <c r="H50" s="14">
         <f t="shared" si="5"/>
         <v>166.9</v>
-      </c>
-      <c r="G50" s="13">
-        <f t="shared" si="6"/>
-        <v>176.77301672877161</v>
-      </c>
-      <c r="H50" s="13">
-        <f t="shared" si="7"/>
-        <v>-9.8730167287716029</v>
       </c>
       <c r="I50" s="19">
         <v>2020</v>
@@ -2454,17 +2453,17 @@
       <c r="E51" s="17">
         <v>17.21032645248545</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="13">
+        <f>H50</f>
+        <v>166.9</v>
+      </c>
+      <c r="G51" s="13">
+        <f>H51-H50</f>
+        <v>-2.4000000000000057</v>
+      </c>
+      <c r="H51" s="14">
         <f t="shared" si="5"/>
         <v>164.5</v>
-      </c>
-      <c r="G51" s="13">
-        <f t="shared" si="6"/>
-        <v>166.9</v>
-      </c>
-      <c r="H51" s="13">
-        <f t="shared" si="7"/>
-        <v>-2.4000000000000057</v>
       </c>
       <c r="I51" s="19">
         <v>2021</v>
@@ -2489,17 +2488,17 @@
       <c r="E52" s="17">
         <v>15.790918085270157</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="13">
+        <f>H51</f>
+        <v>164.5</v>
+      </c>
+      <c r="G52" s="13">
+        <f>H52-H51</f>
+        <v>29.800000000000011</v>
+      </c>
+      <c r="H52" s="14">
         <f t="shared" si="5"/>
         <v>194.3</v>
-      </c>
-      <c r="G52" s="13">
-        <f t="shared" si="6"/>
-        <v>164.5</v>
-      </c>
-      <c r="H52" s="13">
-        <f t="shared" si="7"/>
-        <v>29.800000000000011</v>
       </c>
       <c r="I52" s="19">
         <v>2022</v>
@@ -2524,17 +2523,17 @@
       <c r="E53" s="17">
         <v>15.7022050623192</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="13">
+        <f>H52</f>
+        <v>194.3</v>
+      </c>
+      <c r="G53" s="13">
+        <f>H53-H52</f>
+        <v>-29.300000000000011</v>
+      </c>
+      <c r="H53" s="14">
         <f t="shared" si="5"/>
         <v>165</v>
-      </c>
-      <c r="G53" s="13">
-        <f t="shared" si="6"/>
-        <v>194.3</v>
-      </c>
-      <c r="H53" s="13">
-        <f t="shared" si="7"/>
-        <v>-29.300000000000011</v>
       </c>
       <c r="I53" s="19">
         <v>2023</v>
@@ -2575,415 +2574,415 @@
         <v>-34.130000000000109</v>
       </c>
       <c r="B59" s="25">
-        <f t="shared" ref="B59:E59" si="8">B35-B34</f>
+        <f t="shared" ref="B59:E59" si="6">B35-B34</f>
         <v>2345.27</v>
       </c>
       <c r="C59" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-0.3999999999996362</v>
       </c>
       <c r="D59" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-7.3424518527163514</v>
       </c>
       <c r="E59" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-1.5081213901662487</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="25">
-        <f t="shared" ref="A60:E77" si="9">A36-A35</f>
+        <f t="shared" ref="A60:E77" si="7">A36-A35</f>
         <v>-34.130000000000109</v>
       </c>
       <c r="B60" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>704.81</v>
       </c>
       <c r="C60" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-141.5</v>
       </c>
       <c r="D60" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-7.3424518527162945</v>
       </c>
       <c r="E60" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-1.5081213901662522</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-34.099999999999909</v>
       </c>
       <c r="B61" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>837.56999999999971</v>
       </c>
       <c r="C61" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="D61" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-7.3424518527162945</v>
       </c>
       <c r="E61" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-1.5081213901662522</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-18.800000000000182</v>
       </c>
       <c r="B62" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1058.7200000000003</v>
       </c>
       <c r="C62" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="D62" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-7.3424518527162945</v>
       </c>
       <c r="E62" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-1.5081213901662487</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-8.9499999999998181</v>
       </c>
       <c r="B63" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>850.60000000000036</v>
       </c>
       <c r="C63" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>45.199999999999818</v>
       </c>
       <c r="D63" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-7.3424518527163514</v>
       </c>
       <c r="E63" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-1.5081213901662522</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-38.019999999999982</v>
       </c>
       <c r="B64" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1723.4800000000005</v>
       </c>
       <c r="C64" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>59.400000000000546</v>
       </c>
       <c r="D64" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-6.5896243224095201</v>
       </c>
       <c r="E64" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7.4668921704571929</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-20.400000000000091</v>
       </c>
       <c r="B65" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1823.9499999999989</v>
       </c>
       <c r="C65" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>36.099999999999454</v>
       </c>
       <c r="D65" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-5</v>
       </c>
       <c r="E65" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-12.869999999999436</v>
       </c>
       <c r="B66" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1438.6200000000008</v>
       </c>
       <c r="C66" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.4000000000005457</v>
       </c>
       <c r="D66" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-45</v>
       </c>
       <c r="E66" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.2400000000006912</v>
       </c>
       <c r="B67" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1375.9400000000005</v>
       </c>
       <c r="C67" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>14.489999999999782</v>
       </c>
       <c r="D67" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="E67" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.3999999999999986</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11.570000000000164</v>
       </c>
       <c r="B68" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1592.6100000000006</v>
       </c>
       <c r="C68" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-10.100000000000364</v>
       </c>
       <c r="D68" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-11.600000000000023</v>
       </c>
       <c r="E68" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5.8400000000001455</v>
       </c>
       <c r="B69" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1412.8099999999977</v>
       </c>
       <c r="C69" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>18.390000000000327</v>
       </c>
       <c r="D69" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-16.699999999999989</v>
       </c>
       <c r="E69" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.79999999999999716</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>12.25</v>
       </c>
       <c r="B70" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1595.9000000000015</v>
       </c>
       <c r="C70" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-27.3700000000008</v>
       </c>
       <c r="D70" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>41.800000000000011</v>
       </c>
       <c r="E70" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.9000000000000021</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>17.239999999999782</v>
       </c>
       <c r="B71" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2108.5699999999961</v>
       </c>
       <c r="C71" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-37.779999999999745</v>
       </c>
       <c r="D71" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>12.800000000000011</v>
       </c>
       <c r="E71" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.6400000000003274</v>
       </c>
       <c r="B72" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1097.2100000000064</v>
       </c>
       <c r="C72" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>50.040000000000873</v>
       </c>
       <c r="D72" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-28.837915155881433</v>
       </c>
       <c r="E72" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>14.139853849226931</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5.5499999999997272</v>
       </c>
       <c r="B73" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1597.3599999999969</v>
       </c>
       <c r="C73" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.6799999999993815</v>
       </c>
       <c r="D73" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>44.15132232488628</v>
       </c>
       <c r="E73" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-1.596834413117211</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.2899999999995089</v>
       </c>
       <c r="B74" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>874.61999999999898</v>
       </c>
       <c r="C74" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>41.320000000000618</v>
       </c>
       <c r="D74" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-66.813407169004847</v>
       </c>
       <c r="E74" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-17.04301943610972</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.8200000000006185</v>
       </c>
       <c r="B75" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2893.9300000000003</v>
       </c>
       <c r="C75" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.2299999999995634</v>
       </c>
       <c r="D75" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-10.089114867339731</v>
       </c>
       <c r="E75" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5.5103264524854509</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-6.7599999999997635</v>
       </c>
       <c r="B76" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1665.1599999999999</v>
       </c>
       <c r="C76" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>15.75</v>
       </c>
       <c r="D76" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>78.255078956581826</v>
       </c>
       <c r="E76" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-1.4194083672152935</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-1.8600000000001273</v>
       </c>
       <c r="B77" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1684</v>
       </c>
       <c r="C77" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>15.3100000000004</v>
       </c>
       <c r="D77" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-73.32790731857483</v>
       </c>
       <c r="E77" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-8.8713022950956955E-2</v>
       </c>
     </row>
@@ -3021,11 +3020,11 @@
       <c r="E114" s="24">
         <v>4</v>
       </c>
-      <c r="F114" s="24">
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24">
         <v>5</v>
       </c>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
       <c r="I114" s="24">
         <v>9</v>
       </c>
@@ -3046,11 +3045,11 @@
       <c r="E115" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F115" s="24" t="s">
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
       <c r="I115" s="24" t="s">
         <v>46</v>
       </c>
@@ -3071,11 +3070,11 @@
       <c r="E116" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F116" s="24" t="s">
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
       <c r="I116" s="24" t="s">
         <v>47</v>
       </c>
@@ -3096,11 +3095,11 @@
       <c r="E117" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F117" s="24" t="s">
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
       <c r="I117" s="24" t="s">
         <v>3</v>
       </c>
@@ -3121,11 +3120,11 @@
       <c r="E118" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="24" t="s">
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
       <c r="I118" s="24" t="s">
         <v>44</v>
       </c>
@@ -3146,11 +3145,11 @@
       <c r="E119" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F119" s="24" t="s">
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
       <c r="I119" s="24" t="s">
         <v>48</v>
       </c>
@@ -3171,11 +3170,11 @@
       <c r="E120" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F120" s="24" t="s">
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
       <c r="I120" s="24" t="s">
         <v>32</v>
       </c>
@@ -3196,11 +3195,11 @@
       <c r="E121" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F121" s="24" t="s">
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
       <c r="I121" s="24" t="s">
         <v>33</v>
       </c>
@@ -3211,8 +3210,8 @@
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
       <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
       <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="24"/>
@@ -3220,8 +3219,8 @@
       <c r="C123" s="24"/>
       <c r="D123" s="24"/>
       <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
       <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="23"/>
@@ -3259,11 +3258,11 @@
       <c r="E126" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F126" s="23" t="s">
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
     </row>
     <row r="127" spans="1:9" ht="72" x14ac:dyDescent="0.2">
       <c r="A127" s="24">
@@ -3281,11 +3280,11 @@
       <c r="E127" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F127" s="24" t="s">
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
     </row>
     <row r="128" spans="1:9" ht="72" x14ac:dyDescent="0.2">
       <c r="A128" s="24">
@@ -3303,11 +3302,11 @@
       <c r="E128" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F128" s="24" t="s">
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
     </row>
     <row r="129" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A129" s="24">
@@ -3325,11 +3324,11 @@
       <c r="E129" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F129" s="24" t="s">
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G129" s="24"/>
-      <c r="H129" s="24"/>
     </row>
     <row r="130" spans="1:8" ht="72" x14ac:dyDescent="0.2">
       <c r="A130" s="24">
@@ -3347,11 +3346,11 @@
       <c r="E130" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F130" s="24" t="s">
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24"/>
     </row>
     <row r="131" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A131" s="24">
@@ -3369,11 +3368,11 @@
       <c r="E131" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F131" s="24" t="s">
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
     </row>
     <row r="132" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A132" s="24">
@@ -3391,11 +3390,11 @@
       <c r="E132" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F132" s="24" t="s">
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24"/>
     </row>
     <row r="133" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A133" s="24">
@@ -3413,11 +3412,11 @@
       <c r="E133" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F133" s="24" t="s">
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
     </row>
     <row r="134" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A134" s="24">
@@ -3435,11 +3434,11 @@
       <c r="E134" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F134" s="24" t="s">
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
     </row>
     <row r="135" spans="1:8" ht="54" x14ac:dyDescent="0.2">
       <c r="A135" s="24">
@@ -3457,11 +3456,11 @@
       <c r="E135" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F135" s="24" t="s">
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
